--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H2">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I2">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J2">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.360972666666666</v>
+        <v>2.824532</v>
       </c>
       <c r="N2">
-        <v>19.082918</v>
+        <v>8.473596000000001</v>
       </c>
       <c r="O2">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="P2">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="Q2">
-        <v>140.3599739916997</v>
+        <v>56.57790391614</v>
       </c>
       <c r="R2">
-        <v>1263.239765925298</v>
+        <v>509.20113524526</v>
       </c>
       <c r="S2">
-        <v>0.004373778240187169</v>
+        <v>0.001804246519818903</v>
       </c>
       <c r="T2">
-        <v>0.004373778240187169</v>
+        <v>0.001804246519818903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H3">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I3">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J3">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>322.104362</v>
       </c>
       <c r="O3">
-        <v>0.5259325690101215</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="P3">
-        <v>0.5259325690101214</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="Q3">
-        <v>2369.163870689642</v>
+        <v>2150.67955142133</v>
       </c>
       <c r="R3">
-        <v>21322.47483620678</v>
+        <v>19356.11596279197</v>
       </c>
       <c r="S3">
-        <v>0.07382587136752204</v>
+        <v>0.06858430283400201</v>
       </c>
       <c r="T3">
-        <v>0.07382587136752203</v>
+        <v>0.06858430283400201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H4">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I4">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J4">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.31640666666667</v>
+        <v>28.70592233333333</v>
       </c>
       <c r="N4">
-        <v>93.94922</v>
+        <v>86.117767</v>
       </c>
       <c r="O4">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="P4">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="Q4">
-        <v>691.0216810521576</v>
+        <v>575.005316137155</v>
       </c>
       <c r="R4">
-        <v>6219.195129469419</v>
+        <v>5175.047845234395</v>
       </c>
       <c r="S4">
-        <v>0.02153303043688377</v>
+        <v>0.01833668744702074</v>
       </c>
       <c r="T4">
-        <v>0.02153303043688377</v>
+        <v>0.01833668744702074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.06580366666666</v>
+        <v>20.030895</v>
       </c>
       <c r="H5">
-        <v>66.19741099999999</v>
+        <v>60.092685</v>
       </c>
       <c r="I5">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="J5">
-        <v>0.1403713626377477</v>
+        <v>0.1333691355055119</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.10257333333333</v>
+        <v>69.88962933333333</v>
       </c>
       <c r="N5">
-        <v>177.30772</v>
+        <v>209.668888</v>
       </c>
       <c r="O5">
-        <v>0.2895083571855736</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="P5">
-        <v>0.2895083571855735</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="Q5">
-        <v>1304.145779368102</v>
+        <v>1399.95182676492</v>
       </c>
       <c r="R5">
-        <v>11737.31201431292</v>
+        <v>12599.56644088428</v>
       </c>
       <c r="S5">
-        <v>0.04063868259315474</v>
+        <v>0.04464389870467029</v>
       </c>
       <c r="T5">
-        <v>0.04063868259315473</v>
+        <v>0.04464389870467029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>294.28833</v>
       </c>
       <c r="I6">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J6">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.360972666666666</v>
+        <v>2.824532</v>
       </c>
       <c r="N6">
-        <v>19.082918</v>
+        <v>8.473596000000001</v>
       </c>
       <c r="O6">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="P6">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="Q6">
-        <v>623.9866744163265</v>
+        <v>277.07560177052</v>
       </c>
       <c r="R6">
-        <v>5615.88006974694</v>
+        <v>2493.68041593468</v>
       </c>
       <c r="S6">
-        <v>0.01944414252235666</v>
+        <v>0.00883582910675096</v>
       </c>
       <c r="T6">
-        <v>0.01944414252235666</v>
+        <v>0.00883582910675096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>294.28833</v>
       </c>
       <c r="I7">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J7">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>322.104362</v>
       </c>
       <c r="O7">
-        <v>0.5259325690101215</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="P7">
-        <v>0.5259325690101214</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="Q7">
         <v>10532.39497541061</v>
@@ -883,10 +883,10 @@
         <v>94791.55477869546</v>
       </c>
       <c r="S7">
-        <v>0.3282015424371035</v>
+        <v>0.3358738246632301</v>
       </c>
       <c r="T7">
-        <v>0.3282015424371034</v>
+        <v>0.3358738246632301</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>294.28833</v>
       </c>
       <c r="I8">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J8">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.31640666666667</v>
+        <v>28.70592233333333</v>
       </c>
       <c r="N8">
-        <v>93.94922</v>
+        <v>86.117767</v>
       </c>
       <c r="O8">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="P8">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="Q8">
-        <v>3072.017673178067</v>
+        <v>2815.939314862123</v>
       </c>
       <c r="R8">
-        <v>27648.1590586026</v>
+        <v>25343.45383375911</v>
       </c>
       <c r="S8">
-        <v>0.09572760431838784</v>
+        <v>0.08979916817688703</v>
       </c>
       <c r="T8">
-        <v>0.09572760431838784</v>
+        <v>0.08979916817688703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>294.28833</v>
       </c>
       <c r="I9">
-        <v>0.6240373039738242</v>
+        <v>0.6531407302146811</v>
       </c>
       <c r="J9">
-        <v>0.6240373039738242</v>
+        <v>0.653140730214681</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.10257333333333</v>
+        <v>69.88962933333333</v>
       </c>
       <c r="N9">
-        <v>177.30772</v>
+        <v>209.668888</v>
       </c>
       <c r="O9">
-        <v>0.2895083571855736</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="P9">
-        <v>0.2895083571855735</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="Q9">
-        <v>5797.732534989733</v>
+        <v>6855.900766941892</v>
       </c>
       <c r="R9">
-        <v>52179.59281490759</v>
+        <v>61703.10690247703</v>
       </c>
       <c r="S9">
-        <v>0.1806640146959762</v>
+        <v>0.218631908267813</v>
       </c>
       <c r="T9">
-        <v>0.1806640146959762</v>
+        <v>0.218631908267813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H10">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I10">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J10">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.360972666666666</v>
+        <v>2.824532</v>
       </c>
       <c r="N10">
-        <v>19.082918</v>
+        <v>8.473596000000001</v>
       </c>
       <c r="O10">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="P10">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="Q10">
-        <v>47.50303144572799</v>
+        <v>11.06293863546667</v>
       </c>
       <c r="R10">
-        <v>427.527283011552</v>
+        <v>99.5664477192</v>
       </c>
       <c r="S10">
-        <v>0.001480249100733934</v>
+        <v>0.0003527926478435116</v>
       </c>
       <c r="T10">
-        <v>0.001480249100733934</v>
+        <v>0.0003527926478435116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H11">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I11">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J11">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>322.104362</v>
       </c>
       <c r="O11">
-        <v>0.5259325690101215</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="P11">
-        <v>0.5259325690101214</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="Q11">
-        <v>801.813099909152</v>
+        <v>420.5322971524889</v>
       </c>
       <c r="R11">
-        <v>7216.317899182369</v>
+        <v>3784.7906743724</v>
       </c>
       <c r="S11">
-        <v>0.02498541848751735</v>
+        <v>0.01341060522025419</v>
       </c>
       <c r="T11">
-        <v>0.02498541848751735</v>
+        <v>0.01341060522025419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H12">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I12">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J12">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.31640666666667</v>
+        <v>28.70592233333333</v>
       </c>
       <c r="N12">
-        <v>93.94922</v>
+        <v>86.117767</v>
       </c>
       <c r="O12">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="P12">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="Q12">
-        <v>233.86741754912</v>
+        <v>112.4334428670444</v>
       </c>
       <c r="R12">
-        <v>2104.80675794208</v>
+        <v>1011.9009858034</v>
       </c>
       <c r="S12">
-        <v>0.007287577739403088</v>
+        <v>0.003585457112458581</v>
       </c>
       <c r="T12">
-        <v>0.007287577739403089</v>
+        <v>0.003585457112458581</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.467887999999999</v>
+        <v>3.916733333333333</v>
       </c>
       <c r="H13">
-        <v>22.403664</v>
+        <v>11.7502</v>
       </c>
       <c r="I13">
-        <v>0.04750688578679087</v>
+        <v>0.0260782825067122</v>
       </c>
       <c r="J13">
-        <v>0.04750688578679087</v>
+        <v>0.02607828250671219</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.10257333333333</v>
+        <v>69.88962933333333</v>
       </c>
       <c r="N13">
-        <v>177.30772</v>
+        <v>209.668888</v>
       </c>
       <c r="O13">
-        <v>0.2895083571855736</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="P13">
-        <v>0.2895083571855735</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="Q13">
-        <v>441.37139816512</v>
+        <v>273.7390408641778</v>
       </c>
       <c r="R13">
-        <v>3972.34258348608</v>
+        <v>2463.6513677776</v>
       </c>
       <c r="S13">
-        <v>0.0137536404591365</v>
+        <v>0.008729427526155919</v>
       </c>
       <c r="T13">
-        <v>0.0137536404591365</v>
+        <v>0.008729427526155917</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H14">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I14">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J14">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.360972666666666</v>
+        <v>2.824532</v>
       </c>
       <c r="N14">
-        <v>19.082918</v>
+        <v>8.473596000000001</v>
       </c>
       <c r="O14">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="P14">
-        <v>0.03115862208643262</v>
+        <v>0.01352821635215845</v>
       </c>
       <c r="Q14">
-        <v>188.0691878851209</v>
+        <v>79.50392496865067</v>
       </c>
       <c r="R14">
-        <v>1692.622690966088</v>
+        <v>715.535324717856</v>
       </c>
       <c r="S14">
-        <v>0.005860452223154852</v>
+        <v>0.002535348077745076</v>
       </c>
       <c r="T14">
-        <v>0.005860452223154852</v>
+        <v>0.002535348077745076</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H15">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I15">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J15">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>322.104362</v>
       </c>
       <c r="O15">
-        <v>0.5259325690101215</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="P15">
-        <v>0.5259325690101214</v>
+        <v>0.5142441883127264</v>
       </c>
       <c r="Q15">
-        <v>3174.457165072711</v>
+        <v>3022.15978063187</v>
       </c>
       <c r="R15">
-        <v>28570.1144856544</v>
+        <v>27199.43802568684</v>
       </c>
       <c r="S15">
-        <v>0.09891973671797864</v>
+        <v>0.09637545559524009</v>
       </c>
       <c r="T15">
-        <v>0.09891973671797863</v>
+        <v>0.09637545559524009</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H16">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I16">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J16">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.31640666666667</v>
+        <v>28.70592233333333</v>
       </c>
       <c r="N16">
-        <v>93.94922</v>
+        <v>86.117767</v>
       </c>
       <c r="O16">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="P16">
-        <v>0.1534004517178723</v>
+        <v>0.1374882380208794</v>
       </c>
       <c r="Q16">
-        <v>925.904178168169</v>
+        <v>808.0041208048791</v>
       </c>
       <c r="R16">
-        <v>8333.13760351352</v>
+        <v>7272.037087243913</v>
       </c>
       <c r="S16">
-        <v>0.02885223922319764</v>
+        <v>0.02576692528451301</v>
       </c>
       <c r="T16">
-        <v>0.02885223922319764</v>
+        <v>0.02576692528451301</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.56610533333334</v>
+        <v>28.14764533333333</v>
       </c>
       <c r="H17">
-        <v>88.69831600000001</v>
+        <v>84.442936</v>
       </c>
       <c r="I17">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="J17">
-        <v>0.1880844476016372</v>
+        <v>0.1874118517730947</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.10257333333333</v>
+        <v>69.88962933333333</v>
       </c>
       <c r="N17">
-        <v>177.30772</v>
+        <v>209.668888</v>
       </c>
       <c r="O17">
-        <v>0.2895083571855736</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="P17">
-        <v>0.2895083571855735</v>
+        <v>0.3347393573142358</v>
       </c>
       <c r="Q17">
-        <v>1747.432908644391</v>
+        <v>1967.228498952796</v>
       </c>
       <c r="R17">
-        <v>15726.89617779952</v>
+        <v>17705.05649057517</v>
       </c>
       <c r="S17">
-        <v>0.05445201943730608</v>
+        <v>0.06273412281559654</v>
       </c>
       <c r="T17">
-        <v>0.05445201943730606</v>
+        <v>0.06273412281559654</v>
       </c>
     </row>
   </sheetData>
